--- a/public/ex.xlsx
+++ b/public/ex.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr dateCompatibility="0" showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuxiaoyang/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0CDBC6A-CAF8-8F43-83B2-08813DC0AF89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28000" windowHeight="20800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>订单号</t>
   </si>
@@ -39,9 +28,6 @@
     <t>收货人手机</t>
   </si>
   <si>
-    <t>148912992357</t>
-  </si>
-  <si>
     <t>浙江省 杭州市 下城区 文兴路888号</t>
   </si>
   <si>
@@ -51,26 +37,179 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,75 +218,587 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <start/>
-      <end/>
+  <borders count="13">
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -266,25 +917,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110%"/>
-                <a:satMod val="105%"/>
-                <a:tint val="67%"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="103%"/>
-                <a:tint val="73%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="109%"/>
-                <a:tint val="81%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -292,25 +943,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103%"/>
-                <a:lumMod val="102%"/>
-                <a:tint val="94%"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110%"/>
-                <a:lumMod val="100%"/>
-                <a:shade val="100%"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99%"/>
-                <a:satMod val="120%"/>
-                <a:shade val="78%"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -323,21 +974,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -351,7 +1002,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63%"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -363,32 +1014,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95%"/>
-            <a:satMod val="170%"/>
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93%"/>
-                <a:satMod val="150%"/>
-                <a:shade val="98%"/>
-                <a:lumMod val="102%"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="98%"/>
-                <a:satMod val="130%"/>
-                <a:shade val="90%"/>
-                <a:lumMod val="103%"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63%"/>
-                <a:satMod val="120%"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -398,58 +1049,56 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="47.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="30.9553571428571" customWidth="1"/>
+    <col min="3" max="3" width="18.1517857142857" customWidth="1"/>
+    <col min="4" max="4" width="29.1607142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25" customHeight="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="3">
+        <v>148913000000</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>13812345678</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>